--- a/published-data/fonds-solidarite/fds-2021-10-20/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-10-20/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100074</v>
+        <v>100127</v>
       </c>
       <c r="D2" t="n">
         <v>18987</v>
       </c>
       <c r="E2" t="n">
-        <v>325239904</v>
+        <v>325440544</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>247232</v>
+        <v>247361</v>
       </c>
       <c r="D3" t="n">
         <v>47450</v>
       </c>
       <c r="E3" t="n">
-        <v>1029938381</v>
+        <v>1030331789</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>102211</v>
+        <v>102285</v>
       </c>
       <c r="D4" t="n">
         <v>18688</v>
       </c>
       <c r="E4" t="n">
-        <v>620340569</v>
+        <v>620621490</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38812</v>
+        <v>38852</v>
       </c>
       <c r="D5" t="n">
         <v>6623</v>
       </c>
       <c r="E5" t="n">
-        <v>353627211</v>
+        <v>353953553</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20278</v>
+        <v>20308</v>
       </c>
       <c r="D6" t="n">
         <v>3259</v>
       </c>
       <c r="E6" t="n">
-        <v>348940246</v>
+        <v>349369362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6700</v>
+        <v>6707</v>
       </c>
       <c r="D7" t="n">
         <v>1197</v>
       </c>
       <c r="E7" t="n">
-        <v>273354342</v>
+        <v>273629595</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="D8" t="n">
         <v>189</v>
       </c>
       <c r="E8" t="n">
-        <v>85593563</v>
+        <v>86055893</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>110245</v>
+        <v>110287</v>
       </c>
       <c r="D14" t="n">
         <v>21104</v>
       </c>
       <c r="E14" t="n">
-        <v>251928912</v>
+        <v>251988222</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24595</v>
+        <v>24607</v>
       </c>
       <c r="D15" t="n">
         <v>4846</v>
       </c>
       <c r="E15" t="n">
-        <v>79935222</v>
+        <v>79947526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>67722</v>
+        <v>67756</v>
       </c>
       <c r="D16" t="n">
         <v>13591</v>
       </c>
       <c r="E16" t="n">
-        <v>277621656</v>
+        <v>277677101</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25489</v>
+        <v>25498</v>
       </c>
       <c r="D17" t="n">
         <v>4991</v>
       </c>
       <c r="E17" t="n">
-        <v>146970007</v>
+        <v>146998143</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8662</v>
+        <v>8672</v>
       </c>
       <c r="D18" t="n">
         <v>1636</v>
       </c>
       <c r="E18" t="n">
-        <v>70102779</v>
+        <v>70129868</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4273</v>
+        <v>4283</v>
       </c>
       <c r="D19" t="n">
         <v>730</v>
       </c>
       <c r="E19" t="n">
-        <v>64463513</v>
+        <v>64520042</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1542</v>
+        <v>1547</v>
       </c>
       <c r="D20" t="n">
         <v>282</v>
       </c>
       <c r="E20" t="n">
-        <v>50952736</v>
+        <v>51305860</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D21" t="n">
         <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>9614652</v>
+        <v>9639410</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1353,13 +1353,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23399</v>
+        <v>23405</v>
       </c>
       <c r="D23" t="n">
         <v>5123</v>
       </c>
       <c r="E23" t="n">
-        <v>47655882</v>
+        <v>47658562</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35517</v>
+        <v>35527</v>
       </c>
       <c r="D24" t="n">
         <v>6496</v>
       </c>
       <c r="E24" t="n">
-        <v>131925237</v>
+        <v>131934540</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>85109</v>
+        <v>85162</v>
       </c>
       <c r="D25" t="n">
         <v>16451</v>
       </c>
       <c r="E25" t="n">
-        <v>373311534</v>
+        <v>373379261</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33609</v>
+        <v>33635</v>
       </c>
       <c r="D26" t="n">
         <v>6480</v>
       </c>
       <c r="E26" t="n">
-        <v>202805814</v>
+        <v>202876961</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11736</v>
+        <v>11748</v>
       </c>
       <c r="D27" t="n">
         <v>2234</v>
       </c>
       <c r="E27" t="n">
-        <v>103107383</v>
+        <v>103190573</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5659</v>
+        <v>5673</v>
       </c>
       <c r="D28" t="n">
         <v>985</v>
       </c>
       <c r="E28" t="n">
-        <v>85548948</v>
+        <v>85649629</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="D29" t="n">
         <v>333</v>
       </c>
       <c r="E29" t="n">
-        <v>68433580</v>
+        <v>68454021</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1804,13 +1804,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>25258</v>
+        <v>25268</v>
       </c>
       <c r="D34" t="n">
         <v>5653</v>
       </c>
       <c r="E34" t="n">
-        <v>51377126</v>
+        <v>51382173</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19152</v>
+        <v>19163</v>
       </c>
       <c r="D35" t="n">
         <v>3797</v>
       </c>
       <c r="E35" t="n">
-        <v>61651040</v>
+        <v>61662555</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>56577</v>
+        <v>56613</v>
       </c>
       <c r="D36" t="n">
         <v>11715</v>
       </c>
       <c r="E36" t="n">
-        <v>222589510</v>
+        <v>222649461</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1927,13 +1927,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>22819</v>
+        <v>22832</v>
       </c>
       <c r="D37" t="n">
         <v>4661</v>
       </c>
       <c r="E37" t="n">
-        <v>128902691</v>
+        <v>128965745</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7152</v>
+        <v>7154</v>
       </c>
       <c r="D38" t="n">
         <v>1430</v>
       </c>
       <c r="E38" t="n">
-        <v>56883753</v>
+        <v>56888476</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3614</v>
+        <v>3619</v>
       </c>
       <c r="D39" t="n">
         <v>622</v>
       </c>
       <c r="E39" t="n">
-        <v>57914215</v>
+        <v>57957013</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2050,13 +2050,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="D40" t="n">
         <v>207</v>
       </c>
       <c r="E40" t="n">
-        <v>37113780</v>
+        <v>37259201</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2173,13 +2173,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18188</v>
+        <v>18199</v>
       </c>
       <c r="D43" t="n">
         <v>4013</v>
       </c>
       <c r="E43" t="n">
-        <v>36259186</v>
+        <v>36262489</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10512</v>
+        <v>10518</v>
       </c>
       <c r="D44" t="n">
         <v>1534</v>
       </c>
       <c r="E44" t="n">
-        <v>42511286</v>
+        <v>42520904</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2255,13 +2255,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>23267</v>
+        <v>23270</v>
       </c>
       <c r="D45" t="n">
         <v>3851</v>
       </c>
       <c r="E45" t="n">
-        <v>98907589</v>
+        <v>98912452</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2296,13 +2296,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10861</v>
+        <v>10863</v>
       </c>
       <c r="D46" t="n">
         <v>1770</v>
       </c>
       <c r="E46" t="n">
-        <v>65899176</v>
+        <v>65913644</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2378,13 +2378,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="D48" t="n">
         <v>282</v>
       </c>
       <c r="E48" t="n">
-        <v>30826587</v>
+        <v>30965553</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2501,13 +2501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6321</v>
+        <v>6324</v>
       </c>
       <c r="D51" t="n">
         <v>1250</v>
       </c>
       <c r="E51" t="n">
-        <v>12101274</v>
+        <v>12103869</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2542,13 +2542,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>46582</v>
+        <v>46598</v>
       </c>
       <c r="D52" t="n">
         <v>9471</v>
       </c>
       <c r="E52" t="n">
-        <v>154729232</v>
+        <v>154741737</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>140476</v>
+        <v>140537</v>
       </c>
       <c r="D53" t="n">
         <v>28835</v>
       </c>
       <c r="E53" t="n">
-        <v>585484592</v>
+        <v>585819314</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>59543</v>
+        <v>59595</v>
       </c>
       <c r="D54" t="n">
         <v>11716</v>
       </c>
       <c r="E54" t="n">
-        <v>347537087</v>
+        <v>347711566</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2665,13 +2665,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>22821</v>
+        <v>22842</v>
       </c>
       <c r="D55" t="n">
         <v>4119</v>
       </c>
       <c r="E55" t="n">
-        <v>185027698</v>
+        <v>185139107</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2706,13 +2706,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>11625</v>
+        <v>11645</v>
       </c>
       <c r="D56" t="n">
         <v>1808</v>
       </c>
       <c r="E56" t="n">
-        <v>183413899</v>
+        <v>183602006</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3580</v>
+        <v>3596</v>
       </c>
       <c r="D57" t="n">
         <v>622</v>
       </c>
       <c r="E57" t="n">
-        <v>134023467</v>
+        <v>134541445</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2788,13 +2788,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D58" t="n">
         <v>75</v>
       </c>
       <c r="E58" t="n">
-        <v>32546561</v>
+        <v>32636534</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>51603</v>
+        <v>51624</v>
       </c>
       <c r="D61" t="n">
         <v>11654</v>
       </c>
       <c r="E61" t="n">
-        <v>132989044</v>
+        <v>133015671</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3972</v>
+        <v>3979</v>
       </c>
       <c r="D62" t="n">
         <v>793</v>
       </c>
       <c r="E62" t="n">
-        <v>8552458</v>
+        <v>8561377</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>13368</v>
+        <v>13419</v>
       </c>
       <c r="D63" t="n">
         <v>2803</v>
       </c>
       <c r="E63" t="n">
-        <v>33271646</v>
+        <v>33443062</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4642</v>
+        <v>4662</v>
       </c>
       <c r="D64" t="n">
         <v>1041</v>
       </c>
       <c r="E64" t="n">
-        <v>16935111</v>
+        <v>17072184</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1714</v>
+        <v>1721</v>
       </c>
       <c r="D65" t="n">
         <v>399</v>
       </c>
       <c r="E65" t="n">
-        <v>10322772</v>
+        <v>10369672</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3116,13 +3116,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="D66" t="n">
         <v>132</v>
       </c>
       <c r="E66" t="n">
-        <v>7246778</v>
+        <v>7291061</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3157,13 +3157,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D67" t="n">
         <v>34</v>
       </c>
       <c r="E67" t="n">
-        <v>9215377</v>
+        <v>9286886</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>14853</v>
+        <v>14904</v>
       </c>
       <c r="D70" t="n">
         <v>2735</v>
       </c>
       <c r="E70" t="n">
-        <v>23508444</v>
+        <v>23589879</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2485</v>
+        <v>2491</v>
       </c>
       <c r="D71" t="n">
         <v>375</v>
       </c>
       <c r="E71" t="n">
-        <v>5715144</v>
+        <v>5724144</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3362,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5975</v>
+        <v>5978</v>
       </c>
       <c r="D72" t="n">
         <v>957</v>
       </c>
       <c r="E72" t="n">
-        <v>14417125</v>
+        <v>14422385</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3403,13 +3403,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2308</v>
+        <v>2314</v>
       </c>
       <c r="D73" t="n">
         <v>410</v>
       </c>
       <c r="E73" t="n">
-        <v>6732905</v>
+        <v>6759446</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3485,13 +3485,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D75" t="n">
         <v>60</v>
       </c>
       <c r="E75" t="n">
-        <v>2080195</v>
+        <v>2088366</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3526,13 +3526,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D76" t="n">
         <v>14</v>
       </c>
       <c r="E76" t="n">
-        <v>1582329</v>
+        <v>1585363</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4273</v>
+        <v>4306</v>
       </c>
       <c r="D77" t="n">
         <v>587</v>
       </c>
       <c r="E77" t="n">
-        <v>7931242</v>
+        <v>7978271</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>38398</v>
+        <v>38406</v>
       </c>
       <c r="D78" t="n">
         <v>7462</v>
       </c>
       <c r="E78" t="n">
-        <v>112908471</v>
+        <v>112923768</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>115763</v>
+        <v>115832</v>
       </c>
       <c r="D79" t="n">
         <v>22734</v>
       </c>
       <c r="E79" t="n">
-        <v>445416506</v>
+        <v>445571266</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3690,13 +3690,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>47711</v>
+        <v>47751</v>
       </c>
       <c r="D80" t="n">
         <v>9050</v>
       </c>
       <c r="E80" t="n">
-        <v>268366958</v>
+        <v>268508636</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17193</v>
+        <v>17208</v>
       </c>
       <c r="D81" t="n">
         <v>3213</v>
       </c>
       <c r="E81" t="n">
-        <v>131546330</v>
+        <v>131666591</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8247</v>
+        <v>8271</v>
       </c>
       <c r="D82" t="n">
         <v>1383</v>
       </c>
       <c r="E82" t="n">
-        <v>121461840</v>
+        <v>121965727</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3813,13 +3813,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3300</v>
+        <v>3310</v>
       </c>
       <c r="D83" t="n">
         <v>614</v>
       </c>
       <c r="E83" t="n">
-        <v>113001928</v>
+        <v>113128405</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3854,13 +3854,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D84" t="n">
         <v>61</v>
       </c>
       <c r="E84" t="n">
-        <v>24824468</v>
+        <v>25095045</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4100,13 +4100,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>34159</v>
+        <v>34174</v>
       </c>
       <c r="D90" t="n">
         <v>7301</v>
       </c>
       <c r="E90" t="n">
-        <v>66997183</v>
+        <v>67006639</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>149227</v>
+        <v>149334</v>
       </c>
       <c r="D91" t="n">
         <v>24817</v>
       </c>
       <c r="E91" t="n">
-        <v>472241390</v>
+        <v>472660345</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>403257</v>
+        <v>403600</v>
       </c>
       <c r="D92" t="n">
         <v>70875</v>
       </c>
       <c r="E92" t="n">
-        <v>1559098238</v>
+        <v>1560651929</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>205004</v>
+        <v>205249</v>
       </c>
       <c r="D93" t="n">
         <v>34232</v>
       </c>
       <c r="E93" t="n">
-        <v>1261984952</v>
+        <v>1264119092</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>91368</v>
+        <v>91528</v>
       </c>
       <c r="D94" t="n">
         <v>13779</v>
       </c>
       <c r="E94" t="n">
-        <v>869829493</v>
+        <v>871601546</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>48568</v>
+        <v>48731</v>
       </c>
       <c r="D95" t="n">
         <v>6965</v>
       </c>
       <c r="E95" t="n">
-        <v>869974482</v>
+        <v>872977150</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>16096</v>
+        <v>16160</v>
       </c>
       <c r="D96" t="n">
         <v>2557</v>
       </c>
       <c r="E96" t="n">
-        <v>723944934</v>
+        <v>727085336</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1912</v>
+        <v>1921</v>
       </c>
       <c r="D97" t="n">
         <v>367</v>
       </c>
       <c r="E97" t="n">
-        <v>188810960</v>
+        <v>189782628</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D98" t="n">
         <v>179</v>
       </c>
       <c r="E98" t="n">
-        <v>105500597</v>
+        <v>105509030</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D100" t="n">
         <v>85</v>
       </c>
       <c r="E100" t="n">
-        <v>54448681</v>
+        <v>54850601</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>133816</v>
+        <v>133915</v>
       </c>
       <c r="D104" t="n">
         <v>23231</v>
       </c>
       <c r="E104" t="n">
-        <v>267631098</v>
+        <v>267760412</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4715,13 +4715,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7997</v>
+        <v>8006</v>
       </c>
       <c r="D105" t="n">
         <v>1912</v>
       </c>
       <c r="E105" t="n">
-        <v>16138532</v>
+        <v>16165162</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>17934</v>
+        <v>17948</v>
       </c>
       <c r="D106" t="n">
         <v>4979</v>
       </c>
       <c r="E106" t="n">
-        <v>40197465</v>
+        <v>40235703</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6093</v>
+        <v>6100</v>
       </c>
       <c r="D107" t="n">
         <v>1891</v>
       </c>
       <c r="E107" t="n">
-        <v>20130847</v>
+        <v>20159485</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4838,13 +4838,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2595</v>
+        <v>2601</v>
       </c>
       <c r="D108" t="n">
         <v>740</v>
       </c>
       <c r="E108" t="n">
-        <v>15810379</v>
+        <v>15865456</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4879,13 +4879,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D109" t="n">
         <v>231</v>
       </c>
       <c r="E109" t="n">
-        <v>17107027</v>
+        <v>17173125</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D110" t="n">
         <v>70</v>
       </c>
       <c r="E110" t="n">
-        <v>12999287</v>
+        <v>13075976</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4961,13 +4961,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D111" t="n">
         <v>17</v>
       </c>
       <c r="E111" t="n">
-        <v>4617809</v>
+        <v>4675649</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5043,13 +5043,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8661</v>
+        <v>8665</v>
       </c>
       <c r="D113" t="n">
         <v>2142</v>
       </c>
       <c r="E113" t="n">
-        <v>12525383</v>
+        <v>12529331</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3467</v>
+        <v>3475</v>
       </c>
       <c r="D114" t="n">
         <v>697</v>
       </c>
       <c r="E114" t="n">
-        <v>8462844</v>
+        <v>8479825</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10661</v>
+        <v>10696</v>
       </c>
       <c r="D115" t="n">
         <v>2245</v>
       </c>
       <c r="E115" t="n">
-        <v>29957229</v>
+        <v>30072382</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4011</v>
+        <v>4016</v>
       </c>
       <c r="D116" t="n">
         <v>966</v>
       </c>
       <c r="E116" t="n">
-        <v>16966069</v>
+        <v>17018739</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1590</v>
+        <v>1597</v>
       </c>
       <c r="D117" t="n">
         <v>391</v>
       </c>
       <c r="E117" t="n">
-        <v>8912483</v>
+        <v>9022998</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5248,13 +5248,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D118" t="n">
         <v>157</v>
       </c>
       <c r="E118" t="n">
-        <v>7459282</v>
+        <v>7516361</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5289,13 +5289,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D119" t="n">
         <v>53</v>
       </c>
       <c r="E119" t="n">
-        <v>5776640</v>
+        <v>5791390</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>7654</v>
+        <v>7675</v>
       </c>
       <c r="D122" t="n">
         <v>1479</v>
       </c>
       <c r="E122" t="n">
-        <v>11699015</v>
+        <v>11723130</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5453,13 +5453,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D123" t="n">
         <v>241</v>
       </c>
       <c r="E123" t="n">
-        <v>4534345</v>
+        <v>4536965</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>27818</v>
+        <v>27830</v>
       </c>
       <c r="D130" t="n">
         <v>5237</v>
       </c>
       <c r="E130" t="n">
-        <v>92627702</v>
+        <v>92640025</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5781,13 +5781,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>75073</v>
+        <v>75105</v>
       </c>
       <c r="D131" t="n">
         <v>15096</v>
       </c>
       <c r="E131" t="n">
-        <v>306148413</v>
+        <v>306191849</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>29990</v>
+        <v>30011</v>
       </c>
       <c r="D132" t="n">
         <v>5781</v>
       </c>
       <c r="E132" t="n">
-        <v>172371559</v>
+        <v>172495144</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5863,13 +5863,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>10907</v>
+        <v>10918</v>
       </c>
       <c r="D133" t="n">
         <v>2023</v>
       </c>
       <c r="E133" t="n">
-        <v>90031778</v>
+        <v>90078188</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5120</v>
+        <v>5126</v>
       </c>
       <c r="D134" t="n">
         <v>844</v>
       </c>
       <c r="E134" t="n">
-        <v>78055494</v>
+        <v>78086248</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5945,13 +5945,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="D135" t="n">
         <v>324</v>
       </c>
       <c r="E135" t="n">
-        <v>64300648</v>
+        <v>64349150</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -6150,13 +6150,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>21205</v>
+        <v>21211</v>
       </c>
       <c r="D140" t="n">
         <v>4672</v>
       </c>
       <c r="E140" t="n">
-        <v>42144106</v>
+        <v>42149971</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6191,13 +6191,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>80010</v>
+        <v>80040</v>
       </c>
       <c r="D141" t="n">
         <v>14994</v>
       </c>
       <c r="E141" t="n">
-        <v>279660115</v>
+        <v>279705980</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>167664</v>
+        <v>167757</v>
       </c>
       <c r="D142" t="n">
         <v>35036</v>
       </c>
       <c r="E142" t="n">
-        <v>677718726</v>
+        <v>677915905</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6273,13 +6273,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>64227</v>
+        <v>64269</v>
       </c>
       <c r="D143" t="n">
         <v>13055</v>
       </c>
       <c r="E143" t="n">
-        <v>369389595</v>
+        <v>369483269</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>24015</v>
+        <v>24039</v>
       </c>
       <c r="D144" t="n">
         <v>4609</v>
       </c>
       <c r="E144" t="n">
-        <v>198082390</v>
+        <v>198152944</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6355,13 +6355,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>11557</v>
+        <v>11573</v>
       </c>
       <c r="D145" t="n">
         <v>1968</v>
       </c>
       <c r="E145" t="n">
-        <v>178334918</v>
+        <v>178608454</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>4123</v>
+        <v>4128</v>
       </c>
       <c r="D146" t="n">
         <v>744</v>
       </c>
       <c r="E146" t="n">
-        <v>155939860</v>
+        <v>156057919</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D147" t="n">
         <v>86</v>
       </c>
       <c r="E147" t="n">
-        <v>26134926</v>
+        <v>26331849</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>57112</v>
+        <v>57128</v>
       </c>
       <c r="D152" t="n">
         <v>13263</v>
       </c>
       <c r="E152" t="n">
-        <v>116332412</v>
+        <v>116343877</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6683,13 +6683,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>98608</v>
+        <v>98652</v>
       </c>
       <c r="D153" t="n">
         <v>17285</v>
       </c>
       <c r="E153" t="n">
-        <v>336483575</v>
+        <v>336559473</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>200076</v>
+        <v>200182</v>
       </c>
       <c r="D154" t="n">
         <v>39190</v>
       </c>
       <c r="E154" t="n">
-        <v>781633488</v>
+        <v>781845073</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>71989</v>
+        <v>72056</v>
       </c>
       <c r="D155" t="n">
         <v>13873</v>
       </c>
       <c r="E155" t="n">
-        <v>412950904</v>
+        <v>413287050</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>24772</v>
+        <v>24788</v>
       </c>
       <c r="D156" t="n">
         <v>4630</v>
       </c>
       <c r="E156" t="n">
-        <v>196769937</v>
+        <v>196823997</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6847,13 +6847,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>11839</v>
+        <v>11864</v>
       </c>
       <c r="D157" t="n">
         <v>1991</v>
       </c>
       <c r="E157" t="n">
-        <v>179263363</v>
+        <v>179439677</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6888,13 +6888,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3725</v>
+        <v>3731</v>
       </c>
       <c r="D158" t="n">
         <v>687</v>
       </c>
       <c r="E158" t="n">
-        <v>137374893</v>
+        <v>137462031</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D159" t="n">
         <v>100</v>
       </c>
       <c r="E159" t="n">
-        <v>38207469</v>
+        <v>38373118</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -7093,13 +7093,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>70677</v>
+        <v>70694</v>
       </c>
       <c r="D163" t="n">
         <v>15600</v>
       </c>
       <c r="E163" t="n">
-        <v>131294093</v>
+        <v>131304643</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>33970</v>
+        <v>33982</v>
       </c>
       <c r="D164" t="n">
         <v>6495</v>
       </c>
       <c r="E164" t="n">
-        <v>117032501</v>
+        <v>117041782</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7175,13 +7175,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>83163</v>
+        <v>83221</v>
       </c>
       <c r="D165" t="n">
         <v>17107</v>
       </c>
       <c r="E165" t="n">
-        <v>352388477</v>
+        <v>352488657</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7216,13 +7216,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>35521</v>
+        <v>35563</v>
       </c>
       <c r="D166" t="n">
         <v>7077</v>
       </c>
       <c r="E166" t="n">
-        <v>208285328</v>
+        <v>208394197</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>12043</v>
+        <v>12055</v>
       </c>
       <c r="D167" t="n">
         <v>2416</v>
       </c>
       <c r="E167" t="n">
-        <v>103965084</v>
+        <v>104025201</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6030</v>
+        <v>6036</v>
       </c>
       <c r="D168" t="n">
         <v>1054</v>
       </c>
       <c r="E168" t="n">
-        <v>96907309</v>
+        <v>96940499</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="D169" t="n">
         <v>411</v>
       </c>
       <c r="E169" t="n">
-        <v>86697037</v>
+        <v>86886734</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7462,13 +7462,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>22607</v>
+        <v>22613</v>
       </c>
       <c r="D172" t="n">
         <v>5284</v>
       </c>
       <c r="E172" t="n">
-        <v>44568403</v>
+        <v>44573344</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>96336</v>
+        <v>96362</v>
       </c>
       <c r="D173" t="n">
         <v>16837</v>
       </c>
       <c r="E173" t="n">
-        <v>326468437</v>
+        <v>326494777</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>224405</v>
+        <v>224554</v>
       </c>
       <c r="D174" t="n">
         <v>40888</v>
       </c>
       <c r="E174" t="n">
-        <v>894658145</v>
+        <v>895056763</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>79923</v>
+        <v>79989</v>
       </c>
       <c r="D175" t="n">
         <v>14061</v>
       </c>
       <c r="E175" t="n">
-        <v>479599343</v>
+        <v>479922472</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>28445</v>
+        <v>28480</v>
       </c>
       <c r="D176" t="n">
         <v>4720</v>
       </c>
       <c r="E176" t="n">
-        <v>259263926</v>
+        <v>259506640</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>14405</v>
+        <v>14436</v>
       </c>
       <c r="D177" t="n">
         <v>2252</v>
       </c>
       <c r="E177" t="n">
-        <v>243496295</v>
+        <v>244292457</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>4760</v>
+        <v>4771</v>
       </c>
       <c r="D178" t="n">
         <v>814</v>
       </c>
       <c r="E178" t="n">
-        <v>203491561</v>
+        <v>203890982</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D179" t="n">
         <v>126</v>
       </c>
       <c r="E179" t="n">
-        <v>51173324</v>
+        <v>51288447</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7954,13 +7954,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>68404</v>
+        <v>68422</v>
       </c>
       <c r="D184" t="n">
         <v>13856</v>
       </c>
       <c r="E184" t="n">
-        <v>133643557</v>
+        <v>133659054</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
